--- a/resources/data/parts_data_empty_file.xlsx
+++ b/resources/data/parts_data_empty_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egylk\Projects\drt-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egylk\Projects\drt-automation\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3A850-57FE-41F4-A949-B0C3078C6062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682521FB-2A1B-4128-BC3B-3E258963362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="900" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="1455" windowWidth="21600" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,28 +381,28 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
